--- a/Documentacion/Relación Subsistemas-CRC.xlsx
+++ b/Documentacion/Relación Subsistemas-CRC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsmaAG99\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\LaCompannia-master\LaCompannia-master\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1CC0E0AC-B116-4E68-83A1-48CAE466C203}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1018A5-2E24-4A86-91B9-F5117CF4C998}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Relación Subsistemas-CRC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>DUEÑO</t>
   </si>
@@ -48,9 +49,6 @@
     <t>CRC EMPRESA</t>
   </si>
   <si>
-    <t>CRC RESERVA</t>
-  </si>
-  <si>
     <t>CRC VIAJE</t>
   </si>
   <si>
@@ -75,21 +73,9 @@
     <t>MOD. PARTICIPACIÓN</t>
   </si>
   <si>
-    <t>MODS. PARTICIPACIÓN, PUBLICIDAD, RESERVAS, TRANSPORTE, AUDIOVISUALES, OBRAS</t>
-  </si>
-  <si>
-    <t>MOD. OBRAS</t>
-  </si>
-  <si>
-    <t>MODS. PARTICIPACIÓN, OBRAS, VESTIMENTA, PUBLICIDAD</t>
-  </si>
-  <si>
     <t>MOD. VESTIMENTA</t>
   </si>
   <si>
-    <t>MOD. PUBLICIDAD</t>
-  </si>
-  <si>
     <t>MOD. RESERVAS</t>
   </si>
   <si>
@@ -102,13 +88,44 @@
     <t>MOD. AUDIOVISUALES</t>
   </si>
   <si>
-    <t>MODS. RESERVAS, TRANSPORTE</t>
-  </si>
-  <si>
     <t>MODS. PUBLICIDAD, VESTIMENTA</t>
   </si>
   <si>
     <t>MODS. RESERVAS, VESTIMENTA, PUBLICIDAD</t>
+  </si>
+  <si>
+    <t>CRC RESERVA
+LUGAR</t>
+  </si>
+  <si>
+    <t>CRC RESERVA
+TRANSPORTE</t>
+  </si>
+  <si>
+    <t>MODS. PARTICIPACIÓN, PUBLICIDAD, RESERVAS, TRANSPORTE</t>
+  </si>
+  <si>
+    <t>MODS. PUBLICIDAD,
+VESTIMENTA</t>
+  </si>
+  <si>
+    <t>MODS. RESERVAS</t>
+  </si>
+  <si>
+    <t>MODS. PARTICIPACIÓN, PUBLICIDAD, RESERVAS, TRANSPORTE, AUDIOVISUALES, INFORMACIÓN</t>
+  </si>
+  <si>
+    <t>MODS. PARTICIPACIÓN, INFORMACIÓN, VESTIMENTA, PUBLICIDAD</t>
+  </si>
+  <si>
+    <t>MODS. INFORMACIÓN,
+PARTICIPACIÓN,
+VESTIMENTA</t>
+  </si>
+  <si>
+    <t>MOD. RESERVAS,
+VESTIMENTA,
+PUBLICIDAD</t>
   </si>
 </sst>
 </file>
@@ -552,21 +569,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="20.5703125" style="2" customWidth="1"/>
-    <col min="14" max="16" width="13.28515625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="11.5703125" style="2"/>
+    <col min="1" max="14" width="20.5703125" style="2" customWidth="1"/>
+    <col min="15" max="17" width="13.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -581,158 +598,170 @@
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" ht="99.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="99.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>24</v>
+      <c r="N2" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="99.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="99.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="L3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>24</v>
+      <c r="N3" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="99.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="99.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>24</v>
+      <c r="N4" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:14" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
